--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_UserRoleDelegation.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_UserRoleDelegation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7290"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>Valid Start Date</t>
   </si>
@@ -316,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -357,11 +357,49 @@
     <xf numFmtId="1" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -669,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J8"/>
+  <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,13 +771,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="10">
-        <v>96000000000009</v>
+        <v>96000000000002</v>
       </c>
       <c r="E4" s="10">
         <v>4000000000399</v>
       </c>
       <c r="F4" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="5">
         <f xml:space="preserve"> H3 + IF(EXACT(I4, ""), 0, 1)</f>
@@ -747,27 +785,162 @@
       </c>
       <c r="I4" s="7" t="str">
         <f>CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_UserRoleDelegation_SET""(varSystemLoginSession, null::bigint, null::varchar, ", IF(EXACT(B4, ""), null, CONCATENATE("'", B4, "'")), "::timestamptz, ", IF(EXACT(C4, ""), null, CONCATENATE("'", C4, "'")), "::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(D4, ""), null, D4), "::bigint, ", IF(EXACT(E4, ""), null, E4), "::bigint, ", IF(EXACT(F4, ""), null, CONCATENATE("'", F4, "'")), "::boolean, ", IF(EXACT(B4, ""), null, CONCATENATE("'", B4, "'")), "::timestamptz, ", IF(EXACT(C4, ""), null, CONCATENATE("'", C4, "'")), "::timestamptz);")</f>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_UserRoleDelegation_SET"(varSystemLoginSession, null::bigint, null::varchar, '2000-01-01 00:00:00+00'::timestamptz, '9999-12-31 23:59:59+00'::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 96000000000009::bigint, 4000000000399::bigint, 'TRUE'::boolean, '2000-01-01 00:00:00+00'::timestamptz, '9999-12-31 23:59:59+00'::timestamptz);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_UserRoleDelegation_SET"(varSystemLoginSession, null::bigint, null::varchar, '2000-01-01 00:00:00+00'::timestamptz, '9999-12-31 23:59:59+00'::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 96000000000002::bigint, 4000000000399::bigint, 'FALSE'::boolean, '2000-01-01 00:00:00+00'::timestamptz, '9999-12-31 23:59:59+00'::timestamptz);</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10">
+        <v>96000000000002</v>
+      </c>
+      <c r="E5" s="10">
+        <v>4000000000359</v>
+      </c>
+      <c r="F5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" ref="H5:H9" si="0" xml:space="preserve"> H4 + IF(EXACT(I5, ""), 0, 1)</f>
+        <v>101000000000002</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f>CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_UserRoleDelegation_SET""(varSystemLoginSession, null::bigint, null::varchar, ", IF(EXACT(B5, ""), null, CONCATENATE("'", B5, "'")), "::timestamptz, ", IF(EXACT(C5, ""), null, CONCATENATE("'", C5, "'")), "::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(D5, ""), null, D5), "::bigint, ", IF(EXACT(E5, ""), null, E5), "::bigint, ", IF(EXACT(F5, ""), null, CONCATENATE("'", F5, "'")), "::boolean, ", IF(EXACT(B5, ""), null, CONCATENATE("'", B5, "'")), "::timestamptz, ", IF(EXACT(C5, ""), null, CONCATENATE("'", C5, "'")), "::timestamptz);")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_UserRoleDelegation_SET"(varSystemLoginSession, null::bigint, null::varchar, '2000-01-01 00:00:00+00'::timestamptz, '9999-12-31 23:59:59+00'::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 96000000000002::bigint, 4000000000359::bigint, 'FALSE'::boolean, '2000-01-01 00:00:00+00'::timestamptz, '9999-12-31 23:59:59+00'::timestamptz);</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10">
+        <v>96000000000002</v>
+      </c>
+      <c r="E6" s="10">
+        <v>4000000000582</v>
+      </c>
+      <c r="F6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>101000000000003</v>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f>CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_UserRoleDelegation_SET""(varSystemLoginSession, null::bigint, null::varchar, ", IF(EXACT(B6, ""), null, CONCATENATE("'", B6, "'")), "::timestamptz, ", IF(EXACT(C6, ""), null, CONCATENATE("'", C6, "'")), "::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(D6, ""), null, D6), "::bigint, ", IF(EXACT(E6, ""), null, E6), "::bigint, ", IF(EXACT(F6, ""), null, CONCATENATE("'", F6, "'")), "::boolean, ", IF(EXACT(B6, ""), null, CONCATENATE("'", B6, "'")), "::timestamptz, ", IF(EXACT(C6, ""), null, CONCATENATE("'", C6, "'")), "::timestamptz);")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_UserRoleDelegation_SET"(varSystemLoginSession, null::bigint, null::varchar, '2000-01-01 00:00:00+00'::timestamptz, '9999-12-31 23:59:59+00'::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 96000000000002::bigint, 4000000000582::bigint, 'FALSE'::boolean, '2000-01-01 00:00:00+00'::timestamptz, '9999-12-31 23:59:59+00'::timestamptz);</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10">
+        <v>96000000000002</v>
+      </c>
+      <c r="E7" s="10">
+        <v>4000000000489</v>
+      </c>
+      <c r="F7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>101000000000004</v>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f>CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_UserRoleDelegation_SET""(varSystemLoginSession, null::bigint, null::varchar, ", IF(EXACT(B7, ""), null, CONCATENATE("'", B7, "'")), "::timestamptz, ", IF(EXACT(C7, ""), null, CONCATENATE("'", C7, "'")), "::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(D7, ""), null, D7), "::bigint, ", IF(EXACT(E7, ""), null, E7), "::bigint, ", IF(EXACT(F7, ""), null, CONCATENATE("'", F7, "'")), "::boolean, ", IF(EXACT(B7, ""), null, CONCATENATE("'", B7, "'")), "::timestamptz, ", IF(EXACT(C7, ""), null, CONCATENATE("'", C7, "'")), "::timestamptz);")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_UserRoleDelegation_SET"(varSystemLoginSession, null::bigint, null::varchar, '2000-01-01 00:00:00+00'::timestamptz, '9999-12-31 23:59:59+00'::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 96000000000002::bigint, 4000000000489::bigint, 'FALSE'::boolean, '2000-01-01 00:00:00+00'::timestamptz, '9999-12-31 23:59:59+00'::timestamptz);</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="20">
+        <v>96000000000002</v>
+      </c>
+      <c r="E8" s="20">
+        <v>4000000000473</v>
+      </c>
+      <c r="F8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>101000000000005</v>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f>CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_UserRoleDelegation_SET""(varSystemLoginSession, null::bigint, null::varchar, ", IF(EXACT(B8, ""), null, CONCATENATE("'", B8, "'")), "::timestamptz, ", IF(EXACT(C8, ""), null, CONCATENATE("'", C8, "'")), "::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(D8, ""), null, D8), "::bigint, ", IF(EXACT(E8, ""), null, E8), "::bigint, ", IF(EXACT(F8, ""), null, CONCATENATE("'", F8, "'")), "::boolean, ", IF(EXACT(B8, ""), null, CONCATENATE("'", B8, "'")), "::timestamptz, ", IF(EXACT(C8, ""), null, CONCATENATE("'", C8, "'")), "::timestamptz);")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_UserRoleDelegation_SET"(varSystemLoginSession, null::bigint, null::varchar, '2000-01-01 00:00:00+00'::timestamptz, '9999-12-31 23:59:59+00'::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 96000000000002::bigint, 4000000000473::bigint, 'FALSE'::boolean, '2000-01-01 00:00:00+00'::timestamptz, '9999-12-31 23:59:59+00'::timestamptz);</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10">
+        <v>96000000000009</v>
+      </c>
+      <c r="E9" s="10">
+        <v>4000000000399</v>
+      </c>
+      <c r="F9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>101000000000006</v>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f>CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_UserRoleDelegation_SET""(varSystemLoginSession, null::bigint, null::varchar, ", IF(EXACT(B9, ""), null, CONCATENATE("'", B9, "'")), "::timestamptz, ", IF(EXACT(C9, ""), null, CONCATENATE("'", C9, "'")), "::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(D9, ""), null, D9), "::bigint, ", IF(EXACT(E9, ""), null, E9), "::bigint, ", IF(EXACT(F9, ""), null, CONCATENATE("'", F9, "'")), "::boolean, ", IF(EXACT(B9, ""), null, CONCATENATE("'", B9, "'")), "::timestamptz, ", IF(EXACT(C9, ""), null, CONCATENATE("'", C9, "'")), "::timestamptz);")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_UserRoleDelegation_SET"(varSystemLoginSession, null::bigint, null::varchar, '2000-01-01 00:00:00+00'::timestamptz, '9999-12-31 23:59:59+00'::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 96000000000009::bigint, 4000000000399::bigint, 'TRUE'::boolean, '2000-01-01 00:00:00+00'::timestamptz, '9999-12-31 23:59:59+00'::timestamptz);</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="H4:H6">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>EXACT(H3, H4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:H8">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>EXACT(H4, H7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>EXACT(H6, H9)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
